--- a/SE202526/Management/Sprint2/burndown/Sprint2_Burndown.xlsx
+++ b/SE202526/Management/Sprint2/burndown/Sprint2_Burndown.xlsx
@@ -3,22 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Burndown Chart - 2" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Burndown Chart Sprint1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Burndown Chart Sprint2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Eo7JbcC0EG0HEiSaIwfcXku+UMjUpltRM786EWh0q48="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
-    <t>Sprint 2 Burndown Chart</t>
+    <t>Sprint 1 Burndown Chart</t>
   </si>
   <si>
     <t>Sprint 1</t>
@@ -57,10 +53,67 @@
     <t>Dia 7</t>
   </si>
   <si>
+    <t>Dia 8</t>
+  </si>
+  <si>
+    <t>Dia 9</t>
+  </si>
+  <si>
+    <t>Dia 10</t>
+  </si>
+  <si>
+    <t>Dia 11</t>
+  </si>
+  <si>
+    <t>Dia 12</t>
+  </si>
+  <si>
     <t>T1: Play the first area of the game</t>
   </si>
   <si>
     <t>T2: Read through the classes in the codebase.</t>
+  </si>
+  <si>
+    <t>T3: Define roughly functionality 1.</t>
+  </si>
+  <si>
+    <t>T4: Define roughly functionality 2.</t>
+  </si>
+  <si>
+    <t>T5: Define roughly functionality 3.</t>
+  </si>
+  <si>
+    <t>T6: Trial modification of code.</t>
+  </si>
+  <si>
+    <t>Esforço Completo</t>
+  </si>
+  <si>
+    <t>Esforço Restante</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <i/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Burndown </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Ideal</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprint 2 Burndown Chart</t>
   </si>
   <si>
     <t xml:space="preserve">T7: Make feature goals more specific.
@@ -84,12 +137,6 @@
   </si>
   <si>
     <t>T13: Define functionality 3.</t>
-  </si>
-  <si>
-    <t>Esforço Completo</t>
-  </si>
-  <si>
-    <t>Esforço Restante</t>
   </si>
   <si>
     <r>
@@ -120,7 +167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -129,7 +176,7 @@
     </font>
     <font>
       <sz val="20.0"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font/>
@@ -148,6 +195,11 @@
       <b/>
       <sz val="11.0"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="20.0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -213,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="38">
     <border/>
     <border>
       <left style="medium">
@@ -322,6 +374,18 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -385,6 +449,20 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
@@ -435,6 +513,20 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
@@ -489,6 +581,18 @@
       </bottom>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -510,6 +614,16 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -558,12 +672,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="64">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -589,120 +703,147 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="12" fillId="3" fontId="4" numFmtId="15" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="4" numFmtId="15" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="17" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="18" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="16" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="17" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="15" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="12" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="12" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="18" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="19" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="11" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="19" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="20" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="21" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="23" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="24" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="22" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="25" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="21" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="26" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="12" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="28" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="29" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="19" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="30" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="31" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="32" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="22" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="21" fillId="9" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="24" fillId="9" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="22" fillId="9" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="33" fillId="9" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="34" fillId="9" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="25" fillId="9" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="35" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="36" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="17" fillId="10" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="37" fillId="10" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="12" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="23" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="24" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="22" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="21" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="22" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="22" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="20" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="19" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="20" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="23" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="12" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="25" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="26" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="18" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="27" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="19" fillId="9" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="22" fillId="9" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="20" fillId="9" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="29" fillId="9" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="30" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="16" fillId="10" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="32" fillId="10" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -763,19 +904,19 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Burndown Chart - 2'!$D$5:$K$5</c:f>
+              <c:f>'Burndown Chart Sprint1'!$D$5:$P$5</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart - 2'!$D$15:$K$15</c:f>
+              <c:f>'Burndown Chart Sprint1'!$D$12:$P$12</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="758771535"/>
-        <c:axId val="592304814"/>
+        <c:axId val="116018610"/>
+        <c:axId val="542915784"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -804,12 +945,12 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Burndown Chart - 2'!$D$5:$K$5</c:f>
+              <c:f>'Burndown Chart Sprint1'!$D$5:$P$5</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart - 2'!$D$16:$K$16</c:f>
+              <c:f>'Burndown Chart Sprint1'!$D$13:$P$13</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -832,22 +973,22 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Burndown Chart - 2'!$D$5:$K$5</c:f>
+              <c:f>'Burndown Chart Sprint1'!$D$5:$P$5</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart - 2'!$D$17:$K$17</c:f>
+              <c:f>'Burndown Chart Sprint1'!$D$14:$P$14</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="758771535"/>
-        <c:axId val="592304814"/>
+        <c:axId val="116018610"/>
+        <c:axId val="542915784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="758771535"/>
+        <c:axId val="116018610"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -899,10 +1040,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592304814"/>
+        <c:crossAx val="542915784"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="592304814"/>
+        <c:axId val="542915784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15.0"/>
@@ -967,7 +1108,288 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="758771535"/>
+        <c:crossAx val="116018610"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0" i="0" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" i="0" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Sprint Burndown Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Burndown Chart Sprint2'!$D$5:$K$5</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown Chart Sprint2'!$D$15:$K$15</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:overlap val="100"/>
+        <c:axId val="1884353993"/>
+        <c:axId val="23234096"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln cmpd="sng" w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Burndown Chart Sprint2'!$D$5:$K$5</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown Chart Sprint2'!$D$16:$K$16</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln cmpd="sng" w="28575">
+              <a:solidFill>
+                <a:srgbClr val="00B050">
+                  <a:alpha val="100000"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Burndown Chart Sprint2'!$D$5:$K$5</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown Chart Sprint2'!$D$17:$K$17</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1884353993"/>
+        <c:axId val="23234096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1884353993"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="23234096"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="23234096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0" i="0" sz="1000">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" i="0" sz="1000">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Horas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1884353993"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -997,6 +1419,36 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2133600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9639300" cy="4886325"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>18</xdr:row>
@@ -1005,7 +1457,7 @@
     <xdr:ext cx="9639300" cy="4886325"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1981456270" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1231,14 +1683,1521 @@
     <col customWidth="1" min="2" max="2" width="7.14"/>
     <col customWidth="1" min="3" max="3" width="73.14"/>
     <col customWidth="1" min="4" max="4" width="15.71"/>
-    <col customWidth="1" min="5" max="11" width="10.0"/>
-    <col customWidth="1" min="12" max="21" width="8.71"/>
+    <col customWidth="1" min="5" max="14" width="10.0"/>
+    <col customWidth="1" min="15" max="15" width="9.71"/>
+    <col customWidth="1" min="16" max="16" width="9.57"/>
+    <col customWidth="1" min="17" max="18" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
     <row r="2" ht="23.25" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="3"/>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="B4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="13">
+        <v>45938.0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>45939.0</v>
+      </c>
+      <c r="G4" s="13">
+        <v>45940.0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>45941.0</v>
+      </c>
+      <c r="I4" s="13">
+        <v>45942.0</v>
+      </c>
+      <c r="J4" s="13">
+        <v>45943.0</v>
+      </c>
+      <c r="K4" s="13">
+        <v>45944.0</v>
+      </c>
+      <c r="L4" s="13">
+        <v>45945.0</v>
+      </c>
+      <c r="M4" s="13">
+        <v>45946.0</v>
+      </c>
+      <c r="N4" s="13">
+        <v>45947.0</v>
+      </c>
+      <c r="O4" s="13">
+        <v>45948.0</v>
+      </c>
+      <c r="P4" s="14">
+        <v>45949.0</v>
+      </c>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="9"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="B6" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="27"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="B7" s="28">
+        <v>4.0</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="29">
+        <v>6.0</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="J7" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="M7" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="33"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="B8" s="28">
+        <v>10.0</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="I8" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="J8" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="K8" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="33"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="B9" s="28">
+        <v>11.0</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="33"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="B10" s="28">
+        <v>12.0</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="O10" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="P10" s="33"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="B11" s="28">
+        <v>13.0</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="L11" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="M11" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="33"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="B12" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="38">
+        <f t="shared" ref="E12:P12" si="1">SUM(E6:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="39">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="H12" s="39">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="I12" s="40">
+        <f t="shared" si="1"/>
+        <v>1.7</v>
+      </c>
+      <c r="J12" s="41">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="K12" s="39">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="L12" s="39">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="M12" s="39">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="N12" s="41">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="O12" s="39">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="P12" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="B13" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45">
+        <f>SUM(D6:D12)</f>
+        <v>14</v>
+      </c>
+      <c r="E13" s="46">
+        <f t="shared" ref="E13:P13" si="2">D13-SUM(E6:E11)</f>
+        <v>14</v>
+      </c>
+      <c r="F13" s="47">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="G13" s="47">
+        <f t="shared" si="2"/>
+        <v>12.8</v>
+      </c>
+      <c r="H13" s="47">
+        <f t="shared" si="2"/>
+        <v>11.4</v>
+      </c>
+      <c r="I13" s="48">
+        <f t="shared" si="2"/>
+        <v>9.7</v>
+      </c>
+      <c r="J13" s="49">
+        <f t="shared" si="2"/>
+        <v>9.4</v>
+      </c>
+      <c r="K13" s="49">
+        <f t="shared" si="2"/>
+        <v>7.6</v>
+      </c>
+      <c r="L13" s="49">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="M13" s="49">
+        <f t="shared" si="2"/>
+        <v>4.3</v>
+      </c>
+      <c r="N13" s="47">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
+      </c>
+      <c r="O13" s="50">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="P13" s="51">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="B14" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54">
+        <f>D13</f>
+        <v>14</v>
+      </c>
+      <c r="E14" s="55">
+        <f>$D$14-($D$14/12*1)</f>
+        <v>12.83333333</v>
+      </c>
+      <c r="F14" s="55">
+        <f>$D$14-($D$14/12*2)</f>
+        <v>11.66666667</v>
+      </c>
+      <c r="G14" s="55">
+        <f>$D$14-($D$14/12*3)</f>
+        <v>10.5</v>
+      </c>
+      <c r="H14" s="55">
+        <f>$D$14-($D$14/12*4)</f>
+        <v>9.333333333</v>
+      </c>
+      <c r="I14" s="56">
+        <f>$D$14-($D$14/12*5)</f>
+        <v>8.166666667</v>
+      </c>
+      <c r="J14" s="56">
+        <f>$D$14-($D$14/12*6)</f>
+        <v>7</v>
+      </c>
+      <c r="K14" s="55">
+        <f>$D$14-($D$14/12*7)</f>
+        <v>5.833333333</v>
+      </c>
+      <c r="L14" s="55">
+        <f>$D$14-($D$14/12*8)</f>
+        <v>4.666666667</v>
+      </c>
+      <c r="M14" s="55">
+        <f>$D$14-($D$14/12*9)</f>
+        <v>3.5</v>
+      </c>
+      <c r="N14" s="56">
+        <f>$D$14-($D$14/12*10)</f>
+        <v>2.333333333</v>
+      </c>
+      <c r="O14" s="55">
+        <f>$D$14-($D$14/12*11)</f>
+        <v>1.166666667</v>
+      </c>
+      <c r="P14" s="56">
+        <f>$D$14-($D$14/12*12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="E3:P3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+  </mergeCells>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="8.71"/>
+    <col customWidth="1" min="2" max="2" width="7.14"/>
+    <col customWidth="1" min="3" max="3" width="73.14"/>
+    <col customWidth="1" min="4" max="4" width="15.71"/>
+    <col customWidth="1" min="5" max="11" width="10.0"/>
+    <col customWidth="1" min="12" max="13" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" customHeight="1"/>
+    <row r="2" ht="23.25" customHeight="1">
+      <c r="B2" s="57" t="s">
+        <v>27</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1300,337 +3259,347 @@
       <c r="L4" s="9"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="20" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="9"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="20">
+      <c r="B6" s="21">
         <v>1.0</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="22">
+      <c r="C6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="23">
         <v>0.5</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="58">
         <v>0.1</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="26">
+      <c r="B7" s="28">
         <v>2.0</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="27">
+      <c r="C7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="29">
         <v>1.0</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29">
+      <c r="E7" s="59">
         <v>0.3</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="29">
+      <c r="F7" s="31"/>
+      <c r="G7" s="60">
         <v>0.3</v>
       </c>
-      <c r="I7" s="31">
-        <v>0.3</v>
-      </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
+      <c r="H7" s="60">
+        <v>0.4</v>
+      </c>
+      <c r="I7" s="32"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="26">
+      <c r="B8" s="28">
         <v>7.0</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="E8" s="33">
+      <c r="C8" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="62">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="60">
         <v>0.1</v>
       </c>
-      <c r="F8" s="29">
-        <v>0.2</v>
-      </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31">
-        <v>1.7</v>
-      </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="26">
+      <c r="B9" s="28">
         <v>8.0</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="27">
+      <c r="C9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="29">
         <v>1.0</v>
       </c>
       <c r="E9" s="34"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="I9" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="26">
+      <c r="B10" s="28">
         <v>9.0</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="E10" s="33">
-        <v>2.0</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
+      <c r="C10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="61">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="60">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="26">
+      <c r="B11" s="28">
         <v>11.0</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
+      <c r="C11" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="61">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="62">
+        <v>0.2</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="B12" s="26">
+      <c r="B12" s="28">
         <v>12.0</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="27">
+      <c r="C12" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="29">
         <v>0.5</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="62">
         <v>0.2</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="29">
-        <v>0.3</v>
-      </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
+      <c r="F12" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="G12" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="B13" s="26">
+      <c r="B13" s="28">
         <v>13.0</v>
       </c>
-      <c r="C13" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="27">
+      <c r="C13" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="29">
         <v>0.5</v>
       </c>
       <c r="E13" s="34"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="H13" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="I13" s="31">
-        <v>0.3</v>
-      </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="I13" s="63">
+        <v>0.25</v>
+      </c>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="B14" s="26">
+      <c r="B14" s="28">
         <v>14.0</v>
       </c>
-      <c r="C14" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="27">
+      <c r="C14" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="29">
         <v>0.5</v>
       </c>
       <c r="E14" s="34"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="29">
-        <v>0.3</v>
-      </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="I14" s="63">
+        <v>0.25</v>
+      </c>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38">
+      <c r="B15" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37">
         <v>0.0</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="38">
         <f t="shared" ref="E15:K15" si="1">SUM(E6:E14)</f>
-        <v>2.4</v>
-      </c>
-      <c r="F15" s="40">
+        <v>1</v>
+      </c>
+      <c r="F15" s="39">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="G15" s="39">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="H15" s="39">
+        <f t="shared" si="1"/>
+        <v>1.1</v>
+      </c>
+      <c r="I15" s="40">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="J15" s="41">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G15" s="40">
+      <c r="K15" s="39">
         <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-      <c r="H15" s="40">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="I15" s="41">
-        <f t="shared" si="1"/>
-        <v>3.3</v>
-      </c>
-      <c r="J15" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="B16" s="43" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="45">
         <f>SUM(D6:D15)</f>
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="E16" s="46">
         <f t="shared" ref="E16:K16" si="2">D16-SUM(E6:E14)</f>
-        <v>8.6</v>
+        <v>5.5</v>
       </c>
       <c r="F16" s="47">
         <f t="shared" si="2"/>
-        <v>8.1</v>
+        <v>5.1</v>
       </c>
       <c r="G16" s="47">
         <f t="shared" si="2"/>
-        <v>7.4</v>
+        <v>4.4</v>
       </c>
       <c r="H16" s="47">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="I16" s="48">
         <f t="shared" si="2"/>
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="J16" s="49">
         <f t="shared" si="2"/>
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="K16" s="49">
         <f t="shared" si="2"/>
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="B17" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52">
+      <c r="B17" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="53"/>
+      <c r="D17" s="54">
         <f>D16</f>
-        <v>11</v>
-      </c>
-      <c r="E17" s="53">
-        <f>$D$17-($D$17/12*1)</f>
-        <v>10.08333333</v>
-      </c>
-      <c r="F17" s="53">
-        <f>$D$17-($D$17/12*2)</f>
-        <v>9.166666667</v>
-      </c>
-      <c r="G17" s="53">
-        <f>$D$17-($D$17/12*3)</f>
-        <v>8.25</v>
-      </c>
-      <c r="H17" s="53">
-        <f>$D$17-($D$17/12*4)</f>
-        <v>7.333333333</v>
-      </c>
-      <c r="I17" s="54">
-        <f>$D$17-($D$17/12*5)</f>
-        <v>6.416666667</v>
-      </c>
-      <c r="J17" s="54">
-        <f>$D$17-($D$17/12*6)</f>
-        <v>5.5</v>
-      </c>
-      <c r="K17" s="53">
-        <f>$D$17-($D$17/12*7)</f>
-        <v>4.583333333</v>
+        <v>6.5</v>
+      </c>
+      <c r="E17" s="55">
+        <f>$D$17-($D$17/7*1)</f>
+        <v>5.571428571</v>
+      </c>
+      <c r="F17" s="55">
+        <f>$D$17-($D$17/7*2)</f>
+        <v>4.642857143</v>
+      </c>
+      <c r="G17" s="55">
+        <f>$D$17-($D$17/7*3)</f>
+        <v>3.714285714</v>
+      </c>
+      <c r="H17" s="55">
+        <f>$D$17-($D$17/7*4)</f>
+        <v>2.785714286</v>
+      </c>
+      <c r="I17" s="56">
+        <f>$D$17-($D$17/7*5)</f>
+        <v>1.857142857</v>
+      </c>
+      <c r="J17" s="56">
+        <f>$D$17-($D$17/7*6)</f>
+        <v>0.9285714286</v>
+      </c>
+      <c r="K17" s="55">
+        <f>$D$17-($D$17/7*7)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1"/>
@@ -1836,781 +3805,786 @@
     <row r="218" ht="14.25" customHeight="1"/>
     <row r="219" ht="14.25" customHeight="1"/>
     <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B2:K2"/>
